--- a/scalingAndComparisons.xlsx
+++ b/scalingAndComparisons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djc23551\Fortran\3DSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AB1B2D-AE97-499D-9106-37FE05D26881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286F8835-9656-4DBF-92FB-FD0F4FEFC087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7330" windowWidth="38620" windowHeight="21220" xr2:uid="{B9CF305C-A12F-4BBA-AE2C-DC494FEA2EEA}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -552,31 +552,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -594,9 +582,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9661,16 +9658,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>291351</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>113177</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>475501</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>616323</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>78440</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>2240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9771,8 +9768,8 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
@@ -10241,8 +10238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BFA83E-ABBE-4898-9E21-4EF30DE0B370}">
   <dimension ref="A1:AQ217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L231" sqref="L231"/>
+    <sheetView tabSelected="1" topLeftCell="A170" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O108" sqref="O108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10257,45 +10254,45 @@
   <sheetData>
     <row r="1" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
       <c r="Q2" s="33"/>
       <c r="R2" s="19"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="40"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="36"/>
     </row>
     <row r="3" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -10347,24 +10344,24 @@
         <v>43</v>
       </c>
       <c r="S3" s="27"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
       <c r="AL3" s="28"/>
     </row>
     <row r="4" spans="2:38" x14ac:dyDescent="0.25">
@@ -10408,24 +10405,24 @@
         <v>1</v>
       </c>
       <c r="S4" s="27"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
       <c r="AL4" s="28"/>
     </row>
     <row r="5" spans="2:38" x14ac:dyDescent="0.25">
@@ -10473,24 +10470,24 @@
         <v>3.4037216593607567</v>
       </c>
       <c r="S5" s="27"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
       <c r="AL5" s="28"/>
     </row>
     <row r="6" spans="2:38" x14ac:dyDescent="0.25">
@@ -10538,24 +10535,24 @@
         <v>5.5130776193442976</v>
       </c>
       <c r="S6" s="27"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="41"/>
-      <c r="AF6" s="41"/>
-      <c r="AG6" s="41"/>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="41"/>
-      <c r="AJ6" s="41"/>
-      <c r="AK6" s="41"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
       <c r="AL6" s="28"/>
     </row>
     <row r="7" spans="2:38" x14ac:dyDescent="0.25">
@@ -10613,24 +10610,24 @@
         <v>9.051103906129379</v>
       </c>
       <c r="S7" s="27"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="37"/>
       <c r="AL7" s="28"/>
     </row>
     <row r="8" spans="2:38" x14ac:dyDescent="0.25">
@@ -10688,24 +10685,24 @@
         <v>10.823724901915531</v>
       </c>
       <c r="S8" s="27"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="41"/>
-      <c r="AJ8" s="41"/>
-      <c r="AK8" s="41"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
       <c r="AL8" s="28"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.25">
@@ -10763,24 +10760,24 @@
         <v>13.673590504451038</v>
       </c>
       <c r="S9" s="27"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="41"/>
-      <c r="AJ9" s="41"/>
-      <c r="AK9" s="41"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
       <c r="AL9" s="28"/>
     </row>
     <row r="10" spans="2:38" x14ac:dyDescent="0.25">
@@ -10838,24 +10835,24 @@
         <v>15.6404814134108</v>
       </c>
       <c r="S10" s="27"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
       <c r="AL10" s="28"/>
     </row>
     <row r="11" spans="2:38" x14ac:dyDescent="0.25">
@@ -10913,24 +10910,24 @@
         <v>20.595518775860718</v>
       </c>
       <c r="S11" s="27"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
       <c r="AL11" s="28"/>
     </row>
     <row r="12" spans="2:38" x14ac:dyDescent="0.25">
@@ -10988,24 +10985,24 @@
         <v>22.388390299789954</v>
       </c>
       <c r="S12" s="27"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="41"/>
-      <c r="AK12" s="41"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="37"/>
       <c r="AL12" s="28"/>
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.25">
@@ -11063,24 +11060,24 @@
         <v>24.00955620527639</v>
       </c>
       <c r="S13" s="27"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="41"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="37"/>
       <c r="AL13" s="28"/>
     </row>
     <row r="14" spans="2:38" x14ac:dyDescent="0.25">
@@ -11140,24 +11137,24 @@
         <v>22.257817526023263</v>
       </c>
       <c r="S14" s="27"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="41"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="37"/>
       <c r="AL14" s="28"/>
     </row>
     <row r="15" spans="2:38" x14ac:dyDescent="0.25">
@@ -11215,24 +11212,24 @@
         <v>32.834401642914926</v>
       </c>
       <c r="S15" s="27"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="41"/>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="41"/>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="41"/>
-      <c r="AJ15" s="41"/>
-      <c r="AK15" s="41"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
+      <c r="AK15" s="37"/>
       <c r="AL15" s="28"/>
     </row>
     <row r="16" spans="2:38" x14ac:dyDescent="0.25">
@@ -11292,24 +11289,24 @@
         <v>28.426054630677228</v>
       </c>
       <c r="S16" s="27"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="41"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="37"/>
       <c r="AL16" s="28"/>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.25">
@@ -11367,24 +11364,24 @@
         <v>31.630706513593719</v>
       </c>
       <c r="S17" s="27"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="41"/>
-      <c r="AI17" s="41"/>
-      <c r="AJ17" s="41"/>
-      <c r="AK17" s="41"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
       <c r="AL17" s="28"/>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.25">
@@ -11442,24 +11439,24 @@
         <v>41.272396597242597</v>
       </c>
       <c r="S18" s="27"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
       <c r="AL18" s="28"/>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
@@ -11517,24 +11514,24 @@
         <v>46.035773492714419</v>
       </c>
       <c r="S19" s="27"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="41"/>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="41"/>
-      <c r="AH19" s="41"/>
-      <c r="AI19" s="41"/>
-      <c r="AJ19" s="41"/>
-      <c r="AK19" s="41"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="37"/>
+      <c r="AK19" s="37"/>
       <c r="AL19" s="28"/>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.25">
@@ -11594,24 +11591,24 @@
         <v>46.449159256976841</v>
       </c>
       <c r="S20" s="27"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="41"/>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="41"/>
-      <c r="AI20" s="41"/>
-      <c r="AJ20" s="41"/>
-      <c r="AK20" s="41"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
+      <c r="AK20" s="37"/>
       <c r="AL20" s="28"/>
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.25">
@@ -11669,24 +11666,24 @@
         <v>54.267523785034705</v>
       </c>
       <c r="S21" s="27"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="41"/>
-      <c r="AJ21" s="41"/>
-      <c r="AK21" s="41"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="37"/>
+      <c r="AK21" s="37"/>
       <c r="AL21" s="28"/>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.25">
@@ -11746,24 +11743,24 @@
         <v>54.210372196963853</v>
       </c>
       <c r="S22" s="27"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="41"/>
-      <c r="AI22" s="41"/>
-      <c r="AJ22" s="41"/>
-      <c r="AK22" s="41"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="37"/>
+      <c r="AI22" s="37"/>
+      <c r="AJ22" s="37"/>
+      <c r="AK22" s="37"/>
       <c r="AL22" s="28"/>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.25">
@@ -11821,24 +11818,24 @@
         <v>48.819430950728652</v>
       </c>
       <c r="S23" s="27"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="41"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
+      <c r="AK23" s="37"/>
       <c r="AL23" s="28"/>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.25">
@@ -11896,24 +11893,24 @@
         <v>45.350237445473496</v>
       </c>
       <c r="S24" s="27"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="41"/>
-      <c r="AG24" s="41"/>
-      <c r="AH24" s="41"/>
-      <c r="AI24" s="41"/>
-      <c r="AJ24" s="41"/>
-      <c r="AK24" s="41"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="37"/>
       <c r="AL24" s="28"/>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.25">
@@ -11973,24 +11970,24 @@
         <v>45.19388410638571</v>
       </c>
       <c r="S25" s="27"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="41"/>
-      <c r="AH25" s="41"/>
-      <c r="AI25" s="41"/>
-      <c r="AJ25" s="41"/>
-      <c r="AK25" s="41"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="37"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="37"/>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
+      <c r="AK25" s="37"/>
       <c r="AL25" s="28"/>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.25">
@@ -12050,24 +12047,24 @@
         <v>53.797196023451434</v>
       </c>
       <c r="S26" s="27"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="41"/>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="41"/>
-      <c r="AE26" s="41"/>
-      <c r="AF26" s="41"/>
-      <c r="AG26" s="41"/>
-      <c r="AH26" s="41"/>
-      <c r="AI26" s="41"/>
-      <c r="AJ26" s="41"/>
-      <c r="AK26" s="41"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="37"/>
       <c r="AL26" s="28"/>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.25">
@@ -12125,24 +12122,24 @@
         <v>49.948264028589684</v>
       </c>
       <c r="S27" s="27"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="41"/>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="41"/>
-      <c r="AJ27" s="41"/>
-      <c r="AK27" s="41"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="37"/>
+      <c r="AJ27" s="37"/>
+      <c r="AK27" s="37"/>
       <c r="AL27" s="28"/>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.25">
@@ -12200,24 +12197,24 @@
         <v>48.459599090721227</v>
       </c>
       <c r="S28" s="27"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="41"/>
-      <c r="AC28" s="41"/>
-      <c r="AD28" s="41"/>
-      <c r="AE28" s="41"/>
-      <c r="AF28" s="41"/>
-      <c r="AG28" s="41"/>
-      <c r="AH28" s="41"/>
-      <c r="AI28" s="41"/>
-      <c r="AJ28" s="41"/>
-      <c r="AK28" s="41"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
+      <c r="AI28" s="37"/>
+      <c r="AJ28" s="37"/>
+      <c r="AK28" s="37"/>
       <c r="AL28" s="28"/>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.25">
@@ -12277,24 +12274,24 @@
         <v>52.708891108891116</v>
       </c>
       <c r="S29" s="27"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="41"/>
-      <c r="AC29" s="41"/>
-      <c r="AD29" s="41"/>
-      <c r="AE29" s="41"/>
-      <c r="AF29" s="41"/>
-      <c r="AG29" s="41"/>
-      <c r="AH29" s="41"/>
-      <c r="AI29" s="41"/>
-      <c r="AJ29" s="41"/>
-      <c r="AK29" s="41"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="37"/>
       <c r="AL29" s="28"/>
     </row>
     <row r="30" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12351,47 +12348,47 @@
         <f>N4/N30</f>
         <v>59.535219611272531</v>
       </c>
-      <c r="S30" s="36"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="42"/>
-      <c r="AB30" s="42"/>
-      <c r="AC30" s="42"/>
-      <c r="AD30" s="42"/>
-      <c r="AE30" s="42"/>
-      <c r="AF30" s="42"/>
-      <c r="AG30" s="42"/>
-      <c r="AH30" s="42"/>
-      <c r="AI30" s="42"/>
-      <c r="AJ30" s="42"/>
-      <c r="AK30" s="42"/>
-      <c r="AL30" s="37"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="38"/>
+      <c r="AE30" s="38"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="38"/>
+      <c r="AH30" s="38"/>
+      <c r="AI30" s="38"/>
+      <c r="AJ30" s="38"/>
+      <c r="AK30" s="38"/>
+      <c r="AL30" s="30"/>
     </row>
     <row r="31" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S32" s="29" t="s">
+      <c r="S32" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="30"/>
-      <c r="AB32" s="30"/>
-      <c r="AC32" s="30"/>
-      <c r="AD32" s="30"/>
-      <c r="AE32" s="30"/>
-      <c r="AF32" s="30"/>
-      <c r="AG32" s="30"/>
-      <c r="AH32" s="30"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="32"/>
+      <c r="AC32" s="32"/>
+      <c r="AD32" s="32"/>
+      <c r="AE32" s="32"/>
+      <c r="AF32" s="32"/>
+      <c r="AG32" s="32"/>
+      <c r="AH32" s="32"/>
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="19:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12431,10 +12428,10 @@
       <c r="AD33" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AE33" s="31" t="s">
+      <c r="AE33" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AF33" s="32"/>
+      <c r="AF33" s="40"/>
       <c r="AG33" s="20" t="s">
         <v>41</v>
       </c>
@@ -13493,11 +13490,11 @@
       <c r="AD53" s="15">
         <v>5.3390000000000004</v>
       </c>
-      <c r="AE53" s="36">
+      <c r="AE53" s="29">
         <f t="shared" si="6"/>
         <v>3.9387777777777777</v>
       </c>
-      <c r="AF53" s="37"/>
+      <c r="AF53" s="30"/>
       <c r="AG53" s="5">
         <f t="shared" si="7"/>
         <v>4.5759999999999996</v>
@@ -13557,23 +13554,23 @@
       <c r="AQ59" s="23"/>
     </row>
     <row r="60" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
       <c r="Q60" s="33"/>
       <c r="R60" s="19"/>
     </row>
@@ -14729,23 +14726,23 @@
     </row>
     <row r="82" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="83" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T83" s="29" t="s">
+      <c r="T83" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="U83" s="30"/>
-      <c r="V83" s="30"/>
-      <c r="W83" s="30"/>
-      <c r="X83" s="30"/>
-      <c r="Y83" s="30"/>
-      <c r="Z83" s="30"/>
-      <c r="AA83" s="30"/>
-      <c r="AB83" s="30"/>
-      <c r="AC83" s="30"/>
-      <c r="AD83" s="30"/>
-      <c r="AE83" s="30"/>
-      <c r="AF83" s="30"/>
-      <c r="AG83" s="30"/>
-      <c r="AH83" s="30"/>
+      <c r="U83" s="32"/>
+      <c r="V83" s="32"/>
+      <c r="W83" s="32"/>
+      <c r="X83" s="32"/>
+      <c r="Y83" s="32"/>
+      <c r="Z83" s="32"/>
+      <c r="AA83" s="32"/>
+      <c r="AB83" s="32"/>
+      <c r="AC83" s="32"/>
+      <c r="AD83" s="32"/>
+      <c r="AE83" s="32"/>
+      <c r="AF83" s="32"/>
+      <c r="AG83" s="32"/>
+      <c r="AH83" s="32"/>
       <c r="AI83" s="33"/>
       <c r="AJ83" s="19"/>
     </row>
@@ -15901,40 +15898,40 @@
     </row>
     <row r="130" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="131" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="29" t="s">
+      <c r="B131" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C131" s="30"/>
-      <c r="D131" s="30"/>
-      <c r="E131" s="30"/>
-      <c r="F131" s="30"/>
-      <c r="G131" s="30"/>
-      <c r="H131" s="30"/>
-      <c r="I131" s="30"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="32"/>
+      <c r="I131" s="32"/>
       <c r="J131" s="33"/>
     </row>
     <row r="132" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="29" t="s">
+      <c r="B132" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C132" s="30"/>
-      <c r="D132" s="30"/>
-      <c r="E132" s="30"/>
-      <c r="F132" s="30"/>
-      <c r="G132" s="30"/>
-      <c r="H132" s="30"/>
-      <c r="I132" s="30"/>
-      <c r="J132" s="30"/>
-      <c r="K132" s="30"/>
-      <c r="L132" s="30"/>
-      <c r="M132" s="30"/>
-      <c r="N132" s="30"/>
-      <c r="O132" s="30"/>
-      <c r="P132" s="30"/>
-      <c r="Q132" s="30"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="32"/>
+      <c r="G132" s="32"/>
+      <c r="H132" s="32"/>
+      <c r="I132" s="32"/>
+      <c r="J132" s="32"/>
+      <c r="K132" s="32"/>
+      <c r="L132" s="32"/>
+      <c r="M132" s="32"/>
+      <c r="N132" s="32"/>
+      <c r="O132" s="32"/>
+      <c r="P132" s="32"/>
+      <c r="Q132" s="32"/>
       <c r="R132" s="33"/>
-      <c r="S132" s="34"/>
-      <c r="T132" s="35"/>
+      <c r="S132" s="41"/>
+      <c r="T132" s="42"/>
     </row>
     <row r="133" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="s">
@@ -16713,24 +16710,24 @@
     </row>
     <row r="158" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="159" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="29" t="s">
+      <c r="B159" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C159" s="30"/>
-      <c r="D159" s="30"/>
-      <c r="E159" s="30"/>
-      <c r="F159" s="30"/>
-      <c r="G159" s="30"/>
-      <c r="H159" s="30"/>
-      <c r="I159" s="30"/>
-      <c r="J159" s="30"/>
-      <c r="K159" s="30"/>
-      <c r="L159" s="30"/>
-      <c r="M159" s="30"/>
-      <c r="N159" s="30"/>
-      <c r="O159" s="30"/>
-      <c r="P159" s="30"/>
-      <c r="Q159" s="30"/>
+      <c r="C159" s="32"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="32"/>
+      <c r="F159" s="32"/>
+      <c r="G159" s="32"/>
+      <c r="H159" s="32"/>
+      <c r="I159" s="32"/>
+      <c r="J159" s="32"/>
+      <c r="K159" s="32"/>
+      <c r="L159" s="32"/>
+      <c r="M159" s="32"/>
+      <c r="N159" s="32"/>
+      <c r="O159" s="32"/>
+      <c r="P159" s="32"/>
+      <c r="Q159" s="32"/>
       <c r="R159" s="1"/>
     </row>
     <row r="160" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16770,10 +16767,10 @@
       <c r="M160" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="N160" s="31" t="s">
+      <c r="N160" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="O160" s="32"/>
+      <c r="O160" s="40"/>
       <c r="P160" s="20" t="s">
         <v>41</v>
       </c>
@@ -17535,23 +17532,23 @@
     </row>
     <row r="191" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="192" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="29" t="s">
+      <c r="B192" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C192" s="30"/>
-      <c r="D192" s="30"/>
-      <c r="E192" s="30"/>
-      <c r="F192" s="30"/>
-      <c r="G192" s="30"/>
-      <c r="H192" s="30"/>
-      <c r="I192" s="30"/>
-      <c r="J192" s="30"/>
-      <c r="K192" s="30"/>
-      <c r="L192" s="30"/>
-      <c r="M192" s="30"/>
-      <c r="N192" s="30"/>
-      <c r="O192" s="30"/>
-      <c r="P192" s="30"/>
+      <c r="C192" s="32"/>
+      <c r="D192" s="32"/>
+      <c r="E192" s="32"/>
+      <c r="F192" s="32"/>
+      <c r="G192" s="32"/>
+      <c r="H192" s="32"/>
+      <c r="I192" s="32"/>
+      <c r="J192" s="32"/>
+      <c r="K192" s="32"/>
+      <c r="L192" s="32"/>
+      <c r="M192" s="32"/>
+      <c r="N192" s="32"/>
+      <c r="O192" s="32"/>
+      <c r="P192" s="32"/>
       <c r="Q192" s="33"/>
       <c r="R192" s="19"/>
     </row>
@@ -17595,7 +17592,7 @@
       <c r="N193" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O193" s="43" t="s">
+      <c r="O193" t="s">
         <v>74</v>
       </c>
       <c r="P193" s="5" t="s">
@@ -17607,7 +17604,7 @@
       <c r="R193" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="S193" s="45" t="s">
+      <c r="S193" s="4" t="s">
         <v>75</v>
       </c>
     </row>
@@ -18179,7 +18176,7 @@
       <c r="L203">
         <v>0.218</v>
       </c>
-      <c r="M203" s="44">
+      <c r="M203" s="13">
         <v>0.193</v>
       </c>
       <c r="N203" s="3">
@@ -18826,23 +18823,23 @@
       <c r="E214">
         <v>9.2029999999999994</v>
       </c>
-      <c r="J214" s="43">
+      <c r="J214">
         <v>5.1630000000000003</v>
       </c>
-      <c r="K214" s="43">
+      <c r="K214">
         <v>0.49399999999999999</v>
       </c>
-      <c r="L214" s="43">
+      <c r="L214">
         <v>0.58799999999999997</v>
       </c>
-      <c r="M214" s="44">
+      <c r="M214" s="13">
         <v>0.53500000000000003</v>
       </c>
       <c r="N214" s="3">
         <f t="shared" si="25"/>
         <v>9.02</v>
       </c>
-      <c r="O214" s="45">
+      <c r="O214" s="4">
         <f t="shared" si="26"/>
         <v>6.78</v>
       </c>
@@ -18873,23 +18870,23 @@
       <c r="D215">
         <v>10.747</v>
       </c>
-      <c r="J215" s="43">
+      <c r="J215">
         <v>6.0179999999999998</v>
       </c>
-      <c r="K215" s="43">
+      <c r="K215">
         <v>0.65400000000000003</v>
       </c>
-      <c r="L215" s="43">
+      <c r="L215">
         <v>0.65300000000000002</v>
       </c>
-      <c r="M215" s="44">
+      <c r="M215" s="13">
         <v>0.61799999999999999</v>
       </c>
       <c r="N215" s="3">
         <f t="shared" si="25"/>
         <v>10.747</v>
       </c>
-      <c r="O215" s="45">
+      <c r="O215" s="4">
         <f t="shared" si="26"/>
         <v>7.9429999999999996</v>
       </c>
@@ -18920,23 +18917,23 @@
       <c r="D216">
         <v>15.548999999999999</v>
       </c>
-      <c r="J216" s="43">
+      <c r="J216">
         <v>8.6210000000000004</v>
       </c>
-      <c r="K216" s="43">
+      <c r="K216">
         <v>0.84299999999999997</v>
       </c>
-      <c r="L216" s="43">
+      <c r="L216">
         <v>0.97799999999999998</v>
       </c>
-      <c r="M216" s="44">
+      <c r="M216" s="13">
         <v>0.996</v>
       </c>
       <c r="N216" s="3">
         <f t="shared" si="25"/>
         <v>15.548999999999999</v>
       </c>
-      <c r="O216" s="45">
+      <c r="O216" s="4">
         <f t="shared" si="26"/>
         <v>11.438000000000001</v>
       </c>
@@ -18967,23 +18964,23 @@
       <c r="D217">
         <v>23.731000000000002</v>
       </c>
-      <c r="J217" s="43">
+      <c r="J217">
         <v>12.712</v>
       </c>
-      <c r="K217" s="43">
+      <c r="K217">
         <v>1.173</v>
       </c>
-      <c r="L217" s="43">
+      <c r="L217">
         <v>1.4259999999999999</v>
       </c>
-      <c r="M217" s="44">
+      <c r="M217" s="13">
         <v>1.534</v>
       </c>
       <c r="N217" s="3">
         <f t="shared" si="25"/>
         <v>23.731000000000002</v>
       </c>
-      <c r="O217" s="45">
+      <c r="O217" s="4">
         <f t="shared" si="26"/>
         <v>16.844999999999999</v>
       </c>
@@ -19011,6 +19008,17 @@
     <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="AE44:AF44"/>
     <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="B132:R132"/>
+    <mergeCell ref="B131:J131"/>
+    <mergeCell ref="S132:T132"/>
+    <mergeCell ref="T83:AI83"/>
+    <mergeCell ref="B60:Q60"/>
+    <mergeCell ref="B159:Q159"/>
+    <mergeCell ref="N160:O160"/>
+    <mergeCell ref="N161:O161"/>
+    <mergeCell ref="N162:O162"/>
+    <mergeCell ref="N163:O163"/>
+    <mergeCell ref="N164:O164"/>
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="S2:AL30"/>
     <mergeCell ref="S32:AH32"/>
@@ -19031,17 +19039,6 @@
     <mergeCell ref="AE48:AF48"/>
     <mergeCell ref="AE49:AF49"/>
     <mergeCell ref="AE50:AF50"/>
-    <mergeCell ref="B132:R132"/>
-    <mergeCell ref="B131:J131"/>
-    <mergeCell ref="S132:T132"/>
-    <mergeCell ref="T83:AI83"/>
-    <mergeCell ref="B60:Q60"/>
-    <mergeCell ref="B159:Q159"/>
-    <mergeCell ref="N160:O160"/>
-    <mergeCell ref="N161:O161"/>
-    <mergeCell ref="N162:O162"/>
-    <mergeCell ref="N163:O163"/>
-    <mergeCell ref="N164:O164"/>
     <mergeCell ref="N165:O165"/>
     <mergeCell ref="N166:O166"/>
     <mergeCell ref="N167:O167"/>
@@ -19089,30 +19086,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="M1" s="41" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="M1" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
